--- a/All_Node_Information_DSEOL.xlsx
+++ b/All_Node_Information_DSEOL.xlsx
@@ -508,67 +508,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.54228567500001</t>
+          <t>32.728301099999996</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37.16990562500001</t>
+          <t>32.6744326</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.19888849999999</t>
+          <t>33.4388733</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.36248295000001</t>
+          <t>33.69294665000001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>38.647944175000006</t>
+          <t>32.50233132500001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>35.2469233</t>
+          <t>29.686019324999997</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32.590980375</t>
+          <t>27.83642875</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31.953697850000005</t>
+          <t>27.531323075</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>32.71464652499999</t>
+          <t>28.11747735</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>35.58601162500001</t>
+          <t>30.13292285</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>38.844037699999994</t>
+          <t>32.660068900000006</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>39.472096349999994</t>
+          <t>33.509123875</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>39.20481670000001</t>
+          <t>33.54393159999999</t>
         </is>
       </c>
     </row>
@@ -580,67 +580,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28.440941692307696</t>
+          <t>24.80412369230769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28.392076076923072</t>
+          <t>24.921005615384615</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.335871230769236</t>
+          <t>25.005253000000007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.661573076923073</t>
+          <t>23.303938769230765</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25.419274076923077</t>
+          <t>21.79034</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26.50238615384615</t>
+          <t>22.74786292307692</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>27.771743999999998</t>
+          <t>24.17362353846153</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28.99277469230769</t>
+          <t>25.586232153846154</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.428200923076925</t>
+          <t>27.071647461538458</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>30.734690999999998</t>
+          <t>27.283205846153848</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>29.532172384615382</t>
+          <t>25.72096784615385</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>30.607413</t>
+          <t>26.63486661538462</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>30.299914384615388</t>
+          <t>26.350930923076923</t>
         </is>
       </c>
     </row>
@@ -652,67 +652,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23.866251645161288</t>
+          <t>20.410918354838714</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22.743194870967738</t>
+          <t>19.375536967741937</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.671052516129038</t>
+          <t>18.39962218709677</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.90616041935484</t>
+          <t>15.548423506451616</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.62104151290323</t>
+          <t>13.959404003225806</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19.04765567741936</t>
+          <t>15.291401187096772</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20.736710193548394</t>
+          <t>17.14436348387097</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.295089322580644</t>
+          <t>21.888440483870973</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>29.150719806451615</t>
+          <t>25.854535903225806</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>30.49203538709677</t>
+          <t>27.190355806451613</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29.99396587096774</t>
+          <t>26.41452383870967</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30.714292354838705</t>
+          <t>27.068215</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>28.97145048387097</t>
+          <t>25.30709170967742</t>
         </is>
       </c>
     </row>
@@ -724,67 +724,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23.602827802793346</t>
+          <t>21.6404336379888</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30.70988721284916</t>
+          <t>28.81495770614524</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.172001176536316</t>
+          <t>25.33686108379882</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.71326742240223</t>
+          <t>21.860352001340765</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21.123670689944127</t>
+          <t>19.095931529553084</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21.345219091061523</t>
+          <t>19.22509752932961</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22.330096775418998</t>
+          <t>20.275451770949743</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22.40759171005589</t>
+          <t>20.464985736871547</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21.882063683240254</t>
+          <t>19.991307971508352</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21.603252262569846</t>
+          <t>19.726015167653642</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>20.560792902793253</t>
+          <t>18.55785579513969</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23.001271678212326</t>
+          <t>20.875036143575425</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>23.541741927932986</t>
+          <t>21.414385363687124</t>
         </is>
       </c>
     </row>
@@ -796,67 +796,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.5153412766728924</t>
+          <t>0.7848046324768675</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.089122188460726</t>
+          <t>4.445572477290016</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.602134575752856</t>
+          <t>3.0447986117549</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.272578274504746</t>
+          <t>1.6998731902541229</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.872959921130735</t>
+          <t>2.1669900687927712</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.489664841256545</t>
+          <t>3.708463430893212</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.938529804461704</t>
+          <t>5.20326771419301</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18.394002507904933</t>
+          <t>15.726921016391858</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15.5166992323521</t>
+          <t>12.929596295635301</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11.070164336852535</t>
+          <t>8.502676649796816</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7.205410033716795</t>
+          <t>4.462405105653739</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4.8693060031430555</t>
+          <t>2.053825728137632</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.436774312806458</t>
+          <t>1.5994128694496135</t>
         </is>
       </c>
     </row>
@@ -868,67 +868,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19.197724911801245</t>
+          <t>15.65031491677019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.665669332919254</t>
+          <t>17.220969985714277</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.24895393167702</t>
+          <t>17.910709994409935</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.131388967701866</t>
+          <t>17.76437388757764</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22.027832273291924</t>
+          <t>18.465134713043472</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27.14373466459627</t>
+          <t>23.637173347826078</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>29.92640990062111</t>
+          <t>26.614444975155273</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31.869507347826076</t>
+          <t>28.723551440993774</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31.858092099378894</t>
+          <t>28.758751944099384</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>27.21651255900621</t>
+          <t>24.01225975776397</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21.283450409937892</t>
+          <t>17.71307536024845</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20.485121378260867</t>
+          <t>16.713018795031054</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20.27368916583852</t>
+          <t>16.500923052795027</t>
         </is>
       </c>
     </row>
@@ -940,67 +940,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21.05194730769231</t>
+          <t>16.690585384615385</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22.539605846153847</t>
+          <t>18.274902076923077</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.80518169230769</t>
+          <t>20.582949461538462</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.62652923076923</t>
+          <t>23.21656292307692</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27.768328769230774</t>
+          <t>23.042036384615383</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28.51367453846153</t>
+          <t>23.806668769230768</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>28.989656307692314</t>
+          <t>24.53212338461538</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>29.700968384615383</t>
+          <t>25.47081353846154</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>30.15662553846154</t>
+          <t>26.005302923076922</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>27.563582</t>
+          <t>23.406285923076926</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23.73933861538461</t>
+          <t>19.310042307692306</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21.859336692307693</t>
+          <t>17.235801076923075</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>21.625869769230768</t>
+          <t>17.014904153846153</t>
         </is>
       </c>
     </row>
@@ -1012,67 +1012,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>37.547976217877114</t>
+          <t>35.09954894413407</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>37.31203922905028</t>
+          <t>35.01576826815644</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.55463294972069</t>
+          <t>35.200822469273746</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.78847867597763</t>
+          <t>34.14887753072626</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>35.55419930726256</t>
+          <t>32.68196078770953</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>33.25748494413406</t>
+          <t>30.62405695530727</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31.924131134078205</t>
+          <t>29.59675660335193</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31.802505167597776</t>
+          <t>29.63666129608939</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.28683805586591</t>
+          <t>30.066336681564245</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>33.539213765363144</t>
+          <t>31.007256558659236</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>36.10748248603353</t>
+          <t>33.28977962011173</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>37.74004390502795</t>
+          <t>34.85307573184357</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>38.04057883798883</t>
+          <t>35.26882962011174</t>
         </is>
       </c>
     </row>
@@ -1084,67 +1084,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.7106062</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.0438669</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.249046299999996</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.8896362</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.775699499999995</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.8064638</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.485708699999996</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.5094429</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.4392255</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.071332599999995</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.173666000000004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.512600100000004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.230532100000005</t>
         </is>
       </c>
     </row>
@@ -1156,67 +1156,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11.207842922413793</t>
+          <t>10.226658719827585</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12.418808948275869</t>
+          <t>12.656040008620689</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.141832275862068</t>
+          <t>12.376971853448278</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.468873239655174</t>
+          <t>10.687232135344832</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.88356791810345</t>
+          <t>11.057051593103443</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.315118725862067</t>
+          <t>8.034604894827583</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.296537167241379</t>
+          <t>10.221497115517247</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.459555625</t>
+          <t>10.389588367241382</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11.052609606034478</t>
+          <t>11.734885843103445</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8.14396680689655</t>
+          <t>8.058449417241382</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.49504611206897</t>
+          <t>12.648471956896554</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11.308586198275867</t>
+          <t>11.462733853448274</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10.709971115517243</t>
+          <t>10.854398423275859</t>
         </is>
       </c>
     </row>
@@ -1228,67 +1228,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.244459799999998</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.7690858</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.2071419</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>32.512099899999996</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.3478589</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.6769351</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.3517088</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.7337727</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.107251</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.162723900000003</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.8929489</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.0244237</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.325570799999998</t>
         </is>
       </c>
     </row>
@@ -1300,67 +1300,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23.858176460136654</t>
+          <t>21.875196954441936</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31.031498001138953</t>
+          <t>29.115779005125294</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.482702398633183</t>
+          <t>25.627714403758542</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.048247781321205</t>
+          <t>22.17546196531891</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21.478586153189074</t>
+          <t>19.430009637129817</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21.661820581435055</t>
+          <t>19.5199410545558</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22.634934058086547</t>
+          <t>20.55934408428248</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>22.719630380410003</t>
+          <t>20.75720765660588</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>22.20204793280183</t>
+          <t>20.291990631548977</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21.907817305239178</t>
+          <t>20.0110881788155</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>20.85030771127563</t>
+          <t>18.82659969396356</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23.2601818781321</t>
+          <t>21.111560568906633</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23.797621162870193</t>
+          <t>21.647822116173142</t>
         </is>
       </c>
     </row>
@@ -1372,67 +1372,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28.61967282608696</t>
+          <t>25.731844913043474</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31.486545391304343</t>
+          <t>28.69404530434783</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31.656227347826086</t>
+          <t>28.975142130434794</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30.05361556521739</t>
+          <t>27.326275478260868</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>28.32411191304348</t>
+          <t>25.362119347826084</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28.169355130434777</t>
+          <t>25.10481860869566</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28.767765086956523</t>
+          <t>25.83972834782609</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>28.937301521739133</t>
+          <t>26.19330256521739</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28.938562391304348</t>
+          <t>26.267412260869566</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>28.524310565217387</t>
+          <t>25.8138847826087</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>27.418640130434785</t>
+          <t>24.47109695652174</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>28.64565217391304</t>
+          <t>25.51751573913044</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>28.938910608695654</t>
+          <t>25.814007260869566</t>
         </is>
       </c>
     </row>
@@ -1444,67 +1444,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13.276259435754191</t>
+          <t>18.297900162011167</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13.522654279329597</t>
+          <t>18.167637720670392</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.10126488826816</t>
+          <t>18.295308631284914</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11.923723769273746</t>
+          <t>17.750261826815645</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11.259672608938542</t>
+          <t>16.530312198324026</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.478606224022343</t>
+          <t>14.800516277653637</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.566789400558655</t>
+          <t>13.702284869273743</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.640149025698324</t>
+          <t>13.408357383240222</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.625634929050282</t>
+          <t>13.777939137430177</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10.437188150279328</t>
+          <t>14.722285965363135</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11.146693805586587</t>
+          <t>16.5501533519553</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11.944009774860342</t>
+          <t>17.85782853072626</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.506346980446926</t>
+          <t>18.268233837988834</t>
         </is>
       </c>
     </row>
@@ -1516,67 +1516,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21.261037307692302</t>
+          <t>16.896201769230768</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22.746526230769234</t>
+          <t>18.47911269230769</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.054714846153846</t>
+          <t>20.829215076923074</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27.92422823076923</t>
+          <t>23.510635384615384</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>28.051362307692308</t>
+          <t>23.32143015384615</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28.820220538461534</t>
+          <t>24.110842692307696</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>29.309603384615382</t>
+          <t>24.852481153846153</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29.882155846153847</t>
+          <t>25.6600156923077</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>30.341792692307692</t>
+          <t>26.19965515384615</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>27.768320615384614</t>
+          <t>23.616347846153847</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>23.914116769230773</t>
+          <t>19.486801153846155</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22.040109384615388</t>
+          <t>17.41336046153846</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>21.818510999999997</t>
+          <t>17.20365253846154</t>
         </is>
       </c>
     </row>
@@ -1588,67 +1588,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.7536357</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.2733024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>30.713940400000002</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>32.041510599999995</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>30.894175799999992</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.2450854</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.9228077</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.3011011</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.675097700000002</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.718984800000005</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.4224142</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.530994399999997</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.827378600000003</t>
         </is>
       </c>
     </row>
@@ -1660,67 +1660,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25.907551307692305</t>
+          <t>22.277011076923074</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28.138078923076918</t>
+          <t>24.597319230769227</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30.046370923076918</t>
+          <t>26.58264646153846</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32.01063161538462</t>
+          <t>28.432602307692306</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31.31305415384615</t>
+          <t>27.44954530769231</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31.55239015384615</t>
+          <t>27.650794615384616</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32.09325461538461</t>
+          <t>28.418522461538455</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>31.584259999999997</t>
+          <t>28.147712615384613</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>31.467676076923077</t>
+          <t>28.117287307692315</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>29.71695284615384</t>
+          <t>26.346472846153855</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>26.654105384615384</t>
+          <t>23.01361676923077</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25.935621153846153</t>
+          <t>22.06853784615384</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>26.05604369230769</t>
+          <t>22.18943392307692</t>
         </is>
       </c>
     </row>
@@ -1732,67 +1732,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22.61892915384615</t>
+          <t>18.20086469230769</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21.626295538461537</t>
+          <t>17.414803615384614</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21.29684707692308</t>
+          <t>17.240397230769233</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.03369546153846</t>
+          <t>15.96228246153846</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19.546231076923075</t>
+          <t>15.189661153846155</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21.35381169230769</t>
+          <t>16.859818307692308</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22.918208999999997</t>
+          <t>18.57542584615385</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25.72126523076923</t>
+          <t>21.53184338461538</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>27.98741023076923</t>
+          <t>23.824493230769235</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28.177074076923073</t>
+          <t>23.91600576923077</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>26.130480307692306</t>
+          <t>21.46208276923077</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25.92338169230769</t>
+          <t>21.10662323076923</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>25.230133923076927</t>
+          <t>20.45757</t>
         </is>
       </c>
     </row>
@@ -1804,67 +1804,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>35.42390999999999</t>
+          <t>28.262263689655178</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>33.45097393103448</t>
+          <t>26.927959517241376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33.47239400000001</t>
+          <t>26.841673689655178</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33.63279351724139</t>
+          <t>26.151565206896553</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>33.02672468965517</t>
+          <t>24.973762068965517</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30.67620862068965</t>
+          <t>23.067458172413797</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>28.61405624137931</t>
+          <t>21.822152068965508</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>28.98153772413793</t>
+          <t>22.447468241379315</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>31.222269448275856</t>
+          <t>24.315165965517238</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>37.830089689655175</t>
+          <t>29.674286689655176</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>43.728883620689665</t>
+          <t>34.51108482758621</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>42.031441586206896</t>
+          <t>33.18835996551724</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>40.35715393103448</t>
+          <t>31.94869324137932</t>
         </is>
       </c>
     </row>
@@ -1876,67 +1876,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23.85665506451613</t>
+          <t>20.4221</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22.609330967741933</t>
+          <t>19.26016264516129</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.477201645161287</t>
+          <t>18.224426748387103</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18.627222032258068</t>
+          <t>15.288644429032258</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17.31096362580645</t>
+          <t>13.667073087096773</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18.73783622580645</t>
+          <t>14.99988942903226</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20.454426161290325</t>
+          <t>16.880154967741937</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25.17347129032258</t>
+          <t>21.78435548387097</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>29.27634212903226</t>
+          <t>25.99642987096774</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>30.784112322580647</t>
+          <t>27.50104203225807</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>30.409493096774188</t>
+          <t>26.85159561290322</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>31.117701516129035</t>
+          <t>27.493620322580643</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>29.24953535483871</t>
+          <t>25.606060419354847</t>
         </is>
       </c>
     </row>
@@ -1948,67 +1948,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12.751840315789474</t>
+          <t>11.648835210526313</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.76309557894737</t>
+          <t>14.022143999999999</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.271096578947366</t>
+          <t>13.526717947368423</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11.83564494736842</t>
+          <t>12.07168005263158</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12.921600842105263</t>
+          <t>13.109784736842107</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11.143560526315788</t>
+          <t>10.831558852631579</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12.501580842105264</t>
+          <t>12.42414942105263</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.946204368421052</t>
+          <t>11.872908947368419</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>12.764432526315792</t>
+          <t>13.504831157894733</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11.097661315789473</t>
+          <t>11.007207789473684</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>13.85443457894737</t>
+          <t>14.021762526315788</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12.844379473684208</t>
+          <t>13.011530210526317</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>12.320595315789474</t>
+          <t>12.477955315789476</t>
         </is>
       </c>
     </row>
@@ -2020,67 +2020,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40.119464731843586</t>
+          <t>37.52220730726257</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>39.874731279329595</t>
+          <t>37.43786732402237</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>40.142025117318454</t>
+          <t>37.64287963128491</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>39.40546486033521</t>
+          <t>36.605979</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>38.16509755307263</t>
+          <t>35.12350073184357</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>35.839402687150844</t>
+          <t>33.05785988268157</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>34.446077843575395</t>
+          <t>31.988294206703912</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>34.29457774860336</t>
+          <t>32.005447027932945</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>34.79232791620108</t>
+          <t>32.44422439106147</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>36.08891875418995</t>
+          <t>33.40921663128491</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>38.70003984916201</t>
+          <t>35.713135860335186</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>40.36140313966479</t>
+          <t>37.29844613966481</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>40.655752229050265</t>
+          <t>37.71459997765363</t>
         </is>
       </c>
     </row>
@@ -2092,67 +2092,67 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20.32897441935485</t>
+          <t>16.819131903225806</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25.40663396774193</t>
+          <t>22.044484516129035</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28.940430322580646</t>
+          <t>25.716283935483872</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32.45574861290323</t>
+          <t>29.211588999999996</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>29.225573709677427</t>
+          <t>25.65279058064516</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28.21596661290323</t>
+          <t>24.596913032258065</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>26.922495451612903</t>
+          <t>23.44090577419355</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25.79493238709678</t>
+          <t>22.417626516129037</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>25.574740096774192</t>
+          <t>22.257344774193545</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23.096018451612903</t>
+          <t>19.752417516129036</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>19.841072225806457</t>
+          <t>16.215655903225805</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19.443076967741938</t>
+          <t>15.661609677419355</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>19.66730909677419</t>
+          <t>15.921191935483872</t>
         </is>
       </c>
     </row>
@@ -2164,67 +2164,67 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37.52879737500001</t>
+          <t>32.792670150000006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>37.2470572</t>
+          <t>32.80675865</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>38.36039125</t>
+          <t>33.636162375000005</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39.63187405</t>
+          <t>33.97557535</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>38.90663910000001</t>
+          <t>32.77700992500001</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>35.377063074999995</t>
+          <t>29.858343025</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>32.6518766</t>
+          <t>27.951848124999998</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>31.975342225000002</t>
+          <t>27.618345225000002</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>32.69588135</t>
+          <t>28.17686905</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>35.422191299999994</t>
+          <t>30.089621849999993</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>38.587813275</t>
+          <t>32.550881450000006</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>39.29191165</t>
+          <t>33.455521324999985</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>39.07481927500001</t>
+          <t>33.526782575</t>
         </is>
       </c>
     </row>
@@ -2236,67 +2236,67 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25.62449923076923</t>
+          <t>21.950728846153844</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27.757855</t>
+          <t>24.175776153846154</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29.76021015384615</t>
+          <t>26.24981823076923</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31.850019615384625</t>
+          <t>28.215926692307697</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31.229441384615384</t>
+          <t>27.306639923076922</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31.551144076923077</t>
+          <t>27.593956153846154</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>32.10157607692308</t>
+          <t>28.374859307692308</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>31.62110115384615</t>
+          <t>28.13339323076923</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31.529553076923076</t>
+          <t>28.127018692307693</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>29.700828692307695</t>
+          <t>26.27940376923077</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>26.52272715384616</t>
+          <t>22.832695846153847</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25.690733153846153</t>
+          <t>21.777404000000004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>25.79112123076923</t>
+          <t>21.879491384615385</t>
         </is>
       </c>
     </row>
@@ -2308,67 +2308,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15.722718052631578</t>
+          <t>11.671597631578946</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17.05218210526316</t>
+          <t>13.135102684210528</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17.301187684210532</t>
+          <t>13.479026736842107</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17.088349842105263</t>
+          <t>13.135634789473684</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>17.275931105263158</t>
+          <t>13.039781315789474</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18.643471210526315</t>
+          <t>14.344907684210526</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19.729805368421058</t>
+          <t>15.578892473684208</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>24.252597052631575</t>
+          <t>20.23377515789473</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>25.276991736842113</t>
+          <t>21.31586847368421</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22.576013105263154</t>
+          <t>18.58529189473684</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>19.391031263157895</t>
+          <t>15.15169557894737</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>17.630524736842105</t>
+          <t>13.28605405263158</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>17.133603105263155</t>
+          <t>12.819547684210528</t>
         </is>
       </c>
     </row>
@@ -2380,67 +2380,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>34.139894999999996</t>
+          <t>27.38187017241379</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>35.76673879310346</t>
+          <t>29.197561620689658</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>39.570035551724146</t>
+          <t>32.41025303448276</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>44.44467648275862</t>
+          <t>35.90103779310344</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>43.38242534482758</t>
+          <t>34.281695724137926</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>35.794682379310345</t>
+          <t>27.58946510344828</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30.531955862068973</t>
+          <t>23.51308717241379</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>28.686282</t>
+          <t>22.26213210344827</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>29.075460965517237</t>
+          <t>22.55990496551724</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30.768206965517237</t>
+          <t>23.534998241379313</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>33.230347620689656</t>
+          <t>25.266139724137933</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>34.43985675862069</t>
+          <t>26.631462000000003</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>34.60327258620689</t>
+          <t>27.069205413793114</t>
         </is>
       </c>
     </row>
@@ -2452,67 +2452,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19.863875474576272</t>
+          <t>16.24416354237288</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>24.864212355932207</t>
+          <t>21.399421474576272</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29.351981135593217</t>
+          <t>26.03425881355932</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>33.79926523728813</t>
+          <t>30.468545711864415</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>30.237018084745763</t>
+          <t>26.56363271186441</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28.975990237288137</t>
+          <t>25.259252338983032</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>27.310497593220333</t>
+          <t>23.73771528813559</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25.854036169491522</t>
+          <t>22.384341779661018</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>25.66082183050848</t>
+          <t>22.25143608474576</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22.974749864406782</t>
+          <t>19.535864067796606</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>19.47426818644068</t>
+          <t>15.73544223728814</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>18.835826610169494</t>
+          <t>14.937764169491523</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>19.058332271186444</t>
+          <t>15.199509881355933</t>
         </is>
       </c>
     </row>
@@ -2524,67 +2524,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28.927102021834045</t>
+          <t>23.864067873362433</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28.928106034934505</t>
+          <t>24.12415069868995</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>29.598867842794753</t>
+          <t>24.85968871615721</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>30.35593034497816</t>
+          <t>25.265394550218353</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>30.093909615720513</t>
+          <t>24.56961904366814</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29.25945418777292</t>
+          <t>23.742479689956337</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28.76695937117905</t>
+          <t>23.587112799126643</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28.955007266375535</t>
+          <t>24.08079575982532</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29.769754781659394</t>
+          <t>24.91787567248907</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30.25552387336245</t>
+          <t>25.18657383406113</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>30.31452152401747</t>
+          <t>24.79105451528386</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30.26157124890831</t>
+          <t>24.62400456331879</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>30.091503576419207</t>
+          <t>24.546449781659387</t>
         </is>
       </c>
     </row>
@@ -2596,67 +2596,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22.245773461538455</t>
+          <t>17.837302538461536</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21.273951615384615</t>
+          <t>17.07037207692308</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20.927966538461536</t>
+          <t>16.879890307692307</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19.667809307692302</t>
+          <t>15.606028692307689</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>19.20077669230769</t>
+          <t>14.854945461538462</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21.005541692307695</t>
+          <t>16.521800000000002</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.569736846153845</t>
+          <t>18.233868230769232</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25.504642538461535</t>
+          <t>21.313919384615385</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>27.74249461538462</t>
+          <t>23.57776253846154</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27.895682</t>
+          <t>23.637142230769232</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>25.81484984615384</t>
+          <t>21.154450692307698</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>25.54480746153846</t>
+          <t>20.740182</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>24.847231538461532</t>
+          <t>20.086860615384616</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2668,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28.51179956521739</t>
+          <t>25.63271304347826</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31.491761913043472</t>
+          <t>28.70499173913043</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>31.627670826086955</t>
+          <t>28.949465521739135</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>30.07648560869565</t>
+          <t>27.347252434782607</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>28.344414086956522</t>
+          <t>25.380100130434784</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28.168103782608696</t>
+          <t>25.104807652173914</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>28.74641204347826</t>
+          <t>25.822121565217394</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>28.877497391304345</t>
+          <t>26.138421043478264</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>28.844514739130435</t>
+          <t>26.179221521739134</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28.401896347826092</t>
+          <t>25.69918739130435</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>27.273492347826096</t>
+          <t>24.336347869565223</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28.491947260869573</t>
+          <t>25.37559634782609</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>28.796093173913047</t>
+          <t>25.682846217391305</t>
         </is>
       </c>
     </row>
@@ -2740,67 +2740,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12.731070842105261</t>
+          <t>13.258663999999998</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13.430658631578945</t>
+          <t>13.38471615789474</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.014664368421052</t>
+          <t>12.957122105263158</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12.676403947368419</t>
+          <t>12.618507894736842</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11.163723</t>
+          <t>11.30084794736842</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12.087521157894738</t>
+          <t>11.801299894736843</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11.567686842105264</t>
+          <t>11.846972789473687</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>13.214447684210526</t>
+          <t>12.99364</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>12.452445789473686</t>
+          <t>12.163193526315792</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>11.355889842105261</t>
+          <t>12.259252789473681</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.926970315789477</t>
+          <t>12.638227631578946</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12.14580952631579</t>
+          <t>11.869909684210526</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>11.924098263157894</t>
+          <t>12.356709631578946</t>
         </is>
       </c>
     </row>
@@ -2812,67 +2812,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18.872857090683237</t>
+          <t>15.341657014285714</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20.315951</t>
+          <t>16.886948059627326</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20.92470298757763</t>
+          <t>17.60186501614907</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20.828468194409936</t>
+          <t>17.477499424844723</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>21.981075018633526</t>
+          <t>18.435280486956515</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27.606359801242235</t>
+          <t>24.116798124223607</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30.582415937888204</t>
+          <t>27.286906354037253</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>32.49365170807451</t>
+          <t>29.364467577639747</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>32.3843427826087</t>
+          <t>29.30193973291926</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>27.266195416149078</t>
+          <t>24.079704652173916</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>20.97454340993789</t>
+          <t>17.42310436024844</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20.154562397515534</t>
+          <t>16.40115828447206</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>19.943649713043484</t>
+          <t>16.18916942857143</t>
         </is>
       </c>
     </row>
@@ -2884,67 +2884,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.18820518435754</t>
+          <t>21.43481901675978</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16.437359497206693</t>
+          <t>21.296833396648037</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16.00231086592179</t>
+          <t>21.43698888826815</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14.807504642458097</t>
+          <t>20.87845715642459</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14.142366368715086</t>
+          <t>19.612171689385484</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13.352603624022345</t>
+          <t>17.824538084357545</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>13.46067611731844</t>
+          <t>16.694430551396646</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>13.5332326424581</t>
+          <t>16.389297404469275</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>13.50344413407821</t>
+          <t>16.76370645977654</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13.292777269832394</t>
+          <t>17.73969986983241</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>14.011355178770952</t>
+          <t>19.640148537430164</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>14.827521642458095</t>
+          <t>21.003934011173186</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>15.404543117318429</t>
+          <t>21.426678424581002</t>
         </is>
       </c>
     </row>
@@ -2956,67 +2956,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11.05731314827586</t>
+          <t>11.543795629310345</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11.585518482758626</t>
+          <t>11.542638862068973</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11.160187580172414</t>
+          <t>11.106256461206899</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11.410255456896556</t>
+          <t>11.356607310344826</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8.429777049137929</t>
+          <t>8.541099493965516</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9.346550143103446</t>
+          <t>9.081748175862067</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9.635441013793105</t>
+          <t>9.865971080172416</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11.053862525862073</t>
+          <t>10.853388206034492</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10.050743590517245</t>
+          <t>9.784001636206895</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>8.746648258620692</t>
+          <t>9.569245488793108</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11.363742387068969</t>
+          <t>11.09711202413793</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10.89175500948276</t>
+          <t>10.636584905172416</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.716712215517244</t>
+          <t>11.08367095862069</t>
         </is>
       </c>
     </row>
@@ -3028,67 +3028,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30.537903639999993</t>
+          <t>25.623987120000013</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31.226378528</t>
+          <t>26.519879087999996</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>31.91027719999998</t>
+          <t>27.103456271999995</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>32.58489168</t>
+          <t>27.241662975999983</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31.788349527999998</t>
+          <t>26.035595527999998</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30.19263006399999</t>
+          <t>24.60767332799999</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>29.279877967999994</t>
+          <t>24.10921193600002</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>29.931370695999995</t>
+          <t>24.905960600000004</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>30.717539383999988</t>
+          <t>25.605988567999997</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>31.311876520000006</t>
+          <t>25.891642735999998</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>32.16605959199998</t>
+          <t>26.338514375999996</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>32.244302327999996</t>
+          <t>26.52111224800001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>31.961615816000013</t>
+          <t>26.426215040000006</t>
         </is>
       </c>
     </row>
@@ -3100,67 +3100,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>28.228277692307692</t>
+          <t>24.543372615384616</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>28.05670746153846</t>
+          <t>24.543642846153848</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28.012736384615387</t>
+          <t>24.641020384615384</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26.383361153846156</t>
+          <t>22.983942153846154</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>25.19947869230769</t>
+          <t>21.52622546153846</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26.343883538461537</t>
+          <t>22.542891461538467</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>27.63540361538461</t>
+          <t>23.990852153846156</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>28.923145230769233</t>
+          <t>25.46679915384615</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>30.416277307692308</t>
+          <t>27.006093461538462</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>30.731205076923075</t>
+          <t>27.223280923076928</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>29.478107923076927</t>
+          <t>25.606714615384615</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30.488360615384618</t>
+          <t>26.45824984615385</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>30.15284315384616</t>
+          <t>26.148731769230764</t>
         </is>
       </c>
     </row>
@@ -3172,67 +3172,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>35.09242539393939</t>
+          <t>25.070409121212126</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>34.584498181818184</t>
+          <t>25.009405454545455</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36.032555939393944</t>
+          <t>25.83027184848485</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>38.329764818181815</t>
+          <t>26.506325515151516</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>38.03471693939394</t>
+          <t>25.528644848484845</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>34.14299142424242</t>
+          <t>22.771139696969694</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30.90115078787879</t>
+          <t>20.891503333333336</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30.16957590909092</t>
+          <t>20.6117653030303</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>31.18332903030303</t>
+          <t>21.290894757575764</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>34.283881181818174</t>
+          <t>23.029616787878783</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>37.57268872727274</t>
+          <t>25.15886281818182</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>37.69222442424243</t>
+          <t>25.783138303030302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>37.17471178787879</t>
+          <t>25.786296363636367</t>
         </is>
       </c>
     </row>
@@ -3244,67 +3244,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40.14739481818181</t>
+          <t>32.55086943636364</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39.641904109090916</t>
+          <t>32.42046365454545</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>40.807631672727275</t>
+          <t>33.21016856363637</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>42.47216780000001</t>
+          <t>33.704088018181814</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>42.073415545454544</t>
+          <t>32.71814147272728</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>38.563010163636356</t>
+          <t>29.930760927272726</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>35.498331763636365</t>
+          <t>27.887894018181814</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>34.72159850909091</t>
+          <t>27.48801543636362</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>35.44941074545454</t>
+          <t>28.025847800000008</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>38.637723818181826</t>
+          <t>30.187094036363625</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>41.713705163636384</t>
+          <t>32.43687390909092</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>42.22906449090908</t>
+          <t>33.258950890909084</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>41.89565936363636</t>
+          <t>33.2958717090909</t>
         </is>
       </c>
     </row>
@@ -3316,67 +3316,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>33.797755310344826</t>
+          <t>26.914568206896554</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>35.63092699999999</t>
+          <t>28.934449068965524</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>39.73054193103447</t>
+          <t>32.426137999999995</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>44.97742331034483</t>
+          <t>36.261261103448284</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>43.817626206896556</t>
+          <t>34.540807379310344</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>35.80835910344826</t>
+          <t>27.444573275862066</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>30.285359103448272</t>
+          <t>23.120897620689654</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>28.280070310344833</t>
+          <t>21.734089103448273</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>28.65408465517242</t>
+          <t>22.019982482758614</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>30.32174479310345</t>
+          <t>22.974579517241374</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>32.76750186206896</t>
+          <t>24.685804758620684</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33.996504689655175</t>
+          <t>26.06741489655172</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>34.18010896551725</t>
+          <t>26.523693620689652</t>
         </is>
       </c>
     </row>
@@ -3388,67 +3388,67 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.2083278</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.5346184</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.73286559999999</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.395772</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.301698799999997</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.351664699999997</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.036540199999997</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.068654699999996</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.005697199999997</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.616548299999998</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>30.6882312</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>31.009706599999998</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>30.7251767</t>
         </is>
       </c>
     </row>
@@ -3460,67 +3460,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>35.27824013793105</t>
+          <t>28.343106344827593</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>33.239407793103446</t>
+          <t>26.929246275862077</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>33.218503724137925</t>
+          <t>26.8074534137931</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33.307150965517245</t>
+          <t>26.05945531034483</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32.68383631034482</t>
+          <t>24.86766844827586</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30.36096937931035</t>
+          <t>22.97131648275862</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>28.323234310344823</t>
+          <t>21.73546293103448</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>28.783850344827588</t>
+          <t>22.45716244827586</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>31.158382758620682</t>
+          <t>24.468799827586203</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>38.077784482758624</t>
+          <t>30.21035982758621</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>44.218397620689665</t>
+          <t>35.315233206896536</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>42.29014358620689</t>
+          <t>33.73615879310344</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>40.48645637931034</t>
+          <t>32.348294103448275</t>
         </is>
       </c>
     </row>
@@ -3532,67 +3532,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>35.11773542424242</t>
+          <t>25.084086454545456</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>34.51649681818183</t>
+          <t>24.955960030303032</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>35.86218721212122</t>
+          <t>25.703450787878783</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>38.027370818181815</t>
+          <t>26.288433272727268</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>37.73869115151516</t>
+          <t>25.31826475757575</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>33.99188078787879</t>
+          <t>22.662879151515153</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>30.836762030303042</t>
+          <t>20.843695666666665</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>30.16007724242424</t>
+          <t>20.60329806060606</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>31.21876448484848</t>
+          <t>21.314258757575757</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>34.4532563030303</t>
+          <t>23.144760575757573</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>37.83120121212122</t>
+          <t>25.337673666666664</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>37.881654636363635</t>
+          <t>25.914572424242422</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>37.31689357575759</t>
+          <t>25.88440484848485</t>
         </is>
       </c>
     </row>
@@ -3604,67 +3604,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>40.14985912727272</t>
+          <t>32.41553360000001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>39.6210036</t>
+          <t>32.2752042</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>40.78122581818181</t>
+          <t>33.06129856363637</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>42.463827545454535</t>
+          <t>33.566750109090904</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>42.081218381818175</t>
+          <t>32.59048505454546</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>38.57935703636363</t>
+          <t>29.81059847272727</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>35.49934049090908</t>
+          <t>27.76095950909091</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>34.7092089090909</t>
+          <t>27.353281927272718</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>35.43434016363637</t>
+          <t>27.887293909090896</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>38.646690127272734</t>
+          <t>30.049589472727277</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>41.73717461818182</t>
+          <t>32.29754976363637</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>42.24836485454546</t>
+          <t>33.12044867272728</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>41.9097982</t>
+          <t>33.157443199999996</t>
         </is>
       </c>
     </row>
@@ -3676,67 +3676,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.0295588638043505</t>
+          <t>1.2744067760958009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.6479157690792485</t>
+          <t>4.979720432715703</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6.139162639749875</t>
+          <t>3.557994823287909</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.800197845078694</t>
+          <t>2.2032441971282624</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.372061892701817</t>
+          <t>2.6402800056526465</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6.968052865131746</t>
+          <t>4.160445336715605</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>8.410247601216938</t>
+          <t>5.64907467111887</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>18.96502671475974</t>
+          <t>16.272326908073303</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>16.050287797226304</t>
+          <t>13.436507689519535</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>11.604942576582467</t>
+          <t>9.011617364777603</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>7.747918547580176</t>
+          <t>4.978664676882614</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5.404363358179977</t>
+          <t>2.562382998430906</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4.965516943780331</t>
+          <t>2.1019482826562603</t>
         </is>
       </c>
     </row>
@@ -3748,67 +3748,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15.56934739130435</t>
+          <t>11.531947652173912</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16.842238086956524</t>
+          <t>12.94308691304348</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17.06378043478261</t>
+          <t>13.26514452173913</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16.77188043478261</t>
+          <t>12.853024826086957</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16.954976130434783</t>
+          <t>12.755905304347827</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18.359478</t>
+          <t>14.0922842173913</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>19.481705043478264</t>
+          <t>15.356818217391302</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>24.048599782608697</t>
+          <t>20.05034647826087</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>25.128964043478256</t>
+          <t>21.185109000000004</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>22.45238786956522</t>
+          <t>18.47549786956522</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>19.279696869565218</t>
+          <t>15.049998826086956</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>17.52564691304348</t>
+          <t>13.190676478260873</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>17.017935782608696</t>
+          <t>12.714395999999999</t>
         </is>
       </c>
     </row>
@@ -3820,67 +3820,67 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29.636013325301207</t>
+          <t>24.85622951807229</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30.509223024096396</t>
+          <t>25.925796048192773</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>31.072920939759047</t>
+          <t>26.413460144578313</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>31.607852662650615</t>
+          <t>26.468936012048196</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>30.827045361445787</t>
+          <t>25.290713891566266</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29.490023253012055</t>
+          <t>24.07666926506023</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28.764047000000005</t>
+          <t>23.722651168674705</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>29.648916975903617</t>
+          <t>24.742400337349398</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>30.38101975903614</t>
+          <t>25.404373469879527</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30.74341580722891</t>
+          <t>25.50601296385543</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>31.25659145783133</t>
+          <t>25.647835108433732</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>31.285280819277116</t>
+          <t>25.759216433734945</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>31.010280409638554</t>
+          <t>25.6523724939759</t>
         </is>
       </c>
     </row>
